--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -175,6 +181,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,22 +468,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -480,65 +494,65 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>20201012</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>44116</v>
       </c>
       <c r="C2" s="2">
         <v>0.99461299999999997</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0.95330000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>0.998587</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.96099000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>0.999942</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.98736999999999997</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>97.4101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>0.99873299999999998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.96367000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>20201014</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>44118</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -546,44 +560,44 @@
       <c r="C7" s="2">
         <v>0.99894300000000003</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.98443999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>0.99891399999999997</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.97104000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>0.99992099999999995</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.98931000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>0.99987899999999996</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -591,13 +605,13 @@
         <v>0.99992099999999995</v>
       </c>
       <c r="D11" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.99126999999999998</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -605,13 +619,13 @@
         <v>0.99991799999999997</v>
       </c>
       <c r="D12" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.99126999999999998</v>
       </c>
-      <c r="F12" s="2">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -619,27 +633,27 @@
         <v>0.999942</v>
       </c>
       <c r="D13" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.98833000000000004</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>0.99992099999999995</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="E14" s="1">
         <v>0.99222999999999995</v>
       </c>
-      <c r="F14" s="2">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -647,18 +661,18 @@
         <v>0.99990999999999997</v>
       </c>
       <c r="D15" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.99224999999999997</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>97.557199999999995</v>
       </c>
-      <c r="F15" s="2">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>20201015</v>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>44119</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -667,13 +681,13 @@
         <v>0.99989499999999998</v>
       </c>
       <c r="D17" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.99222999999999995</v>
       </c>
-      <c r="F17" s="2">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -681,79 +695,99 @@
         <v>0.99990800000000002</v>
       </c>
       <c r="D18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.99031000000000002</v>
       </c>
-      <c r="F18" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>0.99992599999999998</v>
       </c>
       <c r="D19" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.99121999999999999</v>
       </c>
-      <c r="F19" s="2">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="4">
         <v>0.99945799999999996</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E21" s="5">
         <v>0.99246000000000001</v>
       </c>
       <c r="F21" s="2">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="5">
+        <v>96.683700000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
         <v>0.99979399999999996</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E22" s="5">
         <v>0.98623000000000005</v>
       </c>
-      <c r="F22" s="2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>0.99986799999999998</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="E23" s="5">
         <v>0.98741000000000001</v>
       </c>
-      <c r="F23" s="2">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>0.99995999999999996</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E24" s="5">
         <v>0.99250000000000005</v>
       </c>
-      <c r="F24" s="2">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>0.99990199999999996</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E25" s="5">
         <v>0.99</v>
       </c>
-      <c r="F25" s="2">
-        <v>0.14000000000000001</v>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>44124</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.99993399999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.99024999999999996</v>
+      </c>
+      <c r="F27" s="7">
+        <v>97.704099999999997</v>
       </c>
     </row>
   </sheetData>

--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,24 +468,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="2"/>
-    <col min="8" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>44116</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0.95330000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -525,7 +525,7 @@
         <v>0.96099000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -539,7 +539,7 @@
         <v>97.4101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.96367000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>44118</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0.98443999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -575,7 +575,7 @@
         <v>0.97104000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0.98931000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0.99126999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -625,7 +625,7 @@
         <v>0.99126999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0.98833000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -653,7 +653,7 @@
         <v>0.99222999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -670,7 +670,7 @@
         <v>97.557199999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>44119</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0.99222999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0.99031000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C19" s="2">
         <v>0.99992599999999998</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0.99121999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -729,7 +729,7 @@
         <v>96.683700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22" s="2">
         <v>0.99979399999999996</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0.98623000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" s="5">
         <v>0.99986799999999998</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0.98741000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="5">
         <v>0.99995999999999996</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0.99250000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25" s="5">
         <v>0.99990199999999996</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>44124</v>
       </c>
@@ -788,6 +788,31 @@
       </c>
       <c r="F27" s="7">
         <v>97.704099999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>40471</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.99993900000000002</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.98834999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C30" s="2">
+        <v>0.99995500000000004</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.99021999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -792,7 +792,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
-        <v>40471</v>
+        <v>40472</v>
       </c>
       <c r="C29" s="2">
         <v>0.99993900000000002</v>
@@ -814,6 +814,37 @@
       <c r="E30" s="2">
         <v>0.99021999999999999</v>
       </c>
+      <c r="F30" s="2">
+        <v>96.975800000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>44126</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.99990500000000004</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.99121999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C33" s="2">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.51999999999999902</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.99202000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,18 +474,18 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>44116</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0.95330000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -525,7 +525,7 @@
         <v>0.96099000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -539,7 +539,7 @@
         <v>97.4101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.96367000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>44118</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0.98443999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -575,7 +575,7 @@
         <v>0.97104000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0.98931000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0.99126999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -625,7 +625,7 @@
         <v>0.99126999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0.98833000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -653,7 +653,7 @@
         <v>0.99222999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -670,7 +670,7 @@
         <v>97.557199999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>44119</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0.99222999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0.99031000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>0.99992599999999998</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0.99121999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -729,7 +729,7 @@
         <v>96.683700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <v>0.99979399999999996</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0.98623000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>0.99986799999999998</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0.98741000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>0.99995999999999996</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0.99250000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>0.99990199999999996</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>44124</v>
       </c>
@@ -790,7 +790,7 @@
         <v>97.704099999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>40472</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.98834999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="2">
         <v>0.99995500000000004</v>
       </c>
@@ -818,7 +818,7 @@
         <v>96.975800000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>44126</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0.99121999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>0.99997000000000003</v>
       </c>
@@ -843,7 +843,7 @@
         <v>0.99202000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
     </row>
   </sheetData>

--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -832,7 +832,7 @@
         <v>0.99121999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>0.99997000000000003</v>
       </c>
@@ -842,8 +842,11 @@
       <c r="E33" s="2">
         <v>0.99202000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="2">
+        <v>96.768900000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
     </row>
   </sheetData>

--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,24 +468,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="2"/>
-    <col min="8" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>44116</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0.95330000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -525,7 +525,7 @@
         <v>0.96099000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -539,7 +539,7 @@
         <v>97.4101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.96367000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>44118</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0.98443999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -575,7 +575,7 @@
         <v>0.97104000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0.98931000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0.99126999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -625,7 +625,7 @@
         <v>0.99126999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0.98833000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -653,7 +653,7 @@
         <v>0.99222999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -670,7 +670,7 @@
         <v>97.557199999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>44119</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0.99222999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0.99031000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C19" s="2">
         <v>0.99992599999999998</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0.99121999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -729,7 +729,7 @@
         <v>96.683700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22" s="2">
         <v>0.99979399999999996</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0.98623000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" s="5">
         <v>0.99986799999999998</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0.98741000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="5">
         <v>0.99995999999999996</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0.99250000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25" s="5">
         <v>0.99990199999999996</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>44124</v>
       </c>
@@ -790,7 +790,7 @@
         <v>97.704099999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>40472</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.98834999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C30" s="2">
         <v>0.99995500000000004</v>
       </c>
@@ -818,7 +818,7 @@
         <v>96.975800000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>44126</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0.99121999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C33" s="2">
         <v>0.99997000000000003</v>
       </c>
@@ -846,8 +846,30 @@
         <v>96.768900000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="2">
+        <v>0.99996099999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.78999999999999904</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.98887999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="2">
+        <v>0.99997199999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.35999999999999899</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.99297999999999997</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -871,6 +871,31 @@
         <v>0.99297999999999997</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>44130</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.99994400000000006</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.98836999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="2">
+        <v>0.99996600000000002</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -896,6 +896,20 @@
         <v>0.99129999999999996</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>44132</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.99996600000000002</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.99224999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10-西湖论剑/02-加密流量检测/result.xlsx
+++ b/10-西湖论剑/02-加密流量检测/result.xlsx
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -909,6 +909,9 @@
       <c r="E41" s="2">
         <v>0.99224999999999997</v>
       </c>
+      <c r="F41" s="2">
+        <v>96.650800000000004</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
